--- a/Code/Results/Cases/Case_4_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000117647968371</v>
+        <v>1.045315207301049</v>
       </c>
       <c r="D2">
-        <v>1.021746335858374</v>
+        <v>1.051001048080566</v>
       </c>
       <c r="E2">
-        <v>1.00829238132144</v>
+        <v>1.048980915629172</v>
       </c>
       <c r="F2">
-        <v>1.025740749199892</v>
+        <v>1.05961281965858</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044233131642894</v>
+        <v>1.039589985579217</v>
       </c>
       <c r="J2">
-        <v>1.022294840775229</v>
+        <v>1.050375598923911</v>
       </c>
       <c r="K2">
-        <v>1.032910800109301</v>
+        <v>1.053753762412953</v>
       </c>
       <c r="L2">
-        <v>1.019637386421926</v>
+        <v>1.051739247367915</v>
       </c>
       <c r="M2">
-        <v>1.036852754274709</v>
+        <v>1.062341847366663</v>
       </c>
       <c r="N2">
-        <v>1.0102365489141</v>
+        <v>1.020490181430688</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007161997688264</v>
+        <v>1.046735611047428</v>
       </c>
       <c r="D3">
-        <v>1.027176746619856</v>
+        <v>1.052107221536946</v>
       </c>
       <c r="E3">
-        <v>1.014817433544179</v>
+        <v>1.050351359645765</v>
       </c>
       <c r="F3">
-        <v>1.03172008710657</v>
+        <v>1.060854367014548</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046228951901418</v>
+        <v>1.039909136250726</v>
       </c>
       <c r="J3">
-        <v>1.027459305469531</v>
+        <v>1.051441289696072</v>
       </c>
       <c r="K3">
-        <v>1.037473314848025</v>
+        <v>1.054671739114369</v>
       </c>
       <c r="L3">
-        <v>1.025264169014166</v>
+        <v>1.05292040324517</v>
       </c>
       <c r="M3">
-        <v>1.041962573816741</v>
+        <v>1.063396578011904</v>
       </c>
       <c r="N3">
-        <v>1.0120674196794</v>
+        <v>1.020858155085652</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011591389493066</v>
+        <v>1.047653769215566</v>
       </c>
       <c r="D4">
-        <v>1.030593870565858</v>
+        <v>1.052821971629605</v>
       </c>
       <c r="E4">
-        <v>1.018926326178024</v>
+        <v>1.051237556026769</v>
       </c>
       <c r="F4">
-        <v>1.035485311155985</v>
+        <v>1.06165697726501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047471867877494</v>
+        <v>1.04011384983022</v>
       </c>
       <c r="J4">
-        <v>1.030703163164989</v>
+        <v>1.052129501573666</v>
       </c>
       <c r="K4">
-        <v>1.040336560675972</v>
+        <v>1.055264126635324</v>
       </c>
       <c r="L4">
-        <v>1.028801569915012</v>
+        <v>1.05368358756658</v>
       </c>
       <c r="M4">
-        <v>1.045173523154439</v>
+        <v>1.06407774393469</v>
       </c>
       <c r="N4">
-        <v>1.013215927160506</v>
+        <v>1.021095452694806</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013424317329582</v>
+        <v>1.048039543857213</v>
       </c>
       <c r="D5">
-        <v>1.032008414343211</v>
+        <v>1.053122212171867</v>
       </c>
       <c r="E5">
-        <v>1.020628007011172</v>
+        <v>1.051609980555573</v>
       </c>
       <c r="F5">
-        <v>1.037044607167962</v>
+        <v>1.061994217865025</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04798324837579</v>
+        <v>1.040199482173262</v>
       </c>
       <c r="J5">
-        <v>1.032044603205813</v>
+        <v>1.052418503782546</v>
       </c>
       <c r="K5">
-        <v>1.041519972460301</v>
+        <v>1.055512785307245</v>
       </c>
       <c r="L5">
-        <v>1.030265162082013</v>
+        <v>1.05400417046951</v>
       </c>
       <c r="M5">
-        <v>1.046501663305128</v>
+        <v>1.064363794624899</v>
       </c>
       <c r="N5">
-        <v>1.013690495267461</v>
+        <v>1.021195020839869</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.013730407652367</v>
+        <v>1.048104304431597</v>
       </c>
       <c r="D6">
-        <v>1.032244662985866</v>
+        <v>1.053172609879753</v>
       </c>
       <c r="E6">
-        <v>1.020912258914793</v>
+        <v>1.051672504641348</v>
       </c>
       <c r="F6">
-        <v>1.037305070180237</v>
+        <v>1.062050831789324</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048068471145501</v>
+        <v>1.040213835085694</v>
       </c>
       <c r="J6">
-        <v>1.032268562545865</v>
+        <v>1.052467009750235</v>
       </c>
       <c r="K6">
-        <v>1.041717510261657</v>
+        <v>1.055554513939095</v>
       </c>
       <c r="L6">
-        <v>1.030509560261307</v>
+        <v>1.054057982636073</v>
       </c>
       <c r="M6">
-        <v>1.046723419475003</v>
+        <v>1.064411805629424</v>
       </c>
       <c r="N6">
-        <v>1.013769703743899</v>
+        <v>1.021211727558128</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011615993781741</v>
+        <v>1.047658924809086</v>
       </c>
       <c r="D7">
-        <v>1.03061285683154</v>
+        <v>1.052825984398887</v>
       </c>
       <c r="E7">
-        <v>1.018949163303795</v>
+        <v>1.051242532896154</v>
       </c>
       <c r="F7">
-        <v>1.035506237714065</v>
+        <v>1.061661484180284</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047478744148047</v>
+        <v>1.040114995738869</v>
       </c>
       <c r="J7">
-        <v>1.030721173622304</v>
+        <v>1.052133364496066</v>
       </c>
       <c r="K7">
-        <v>1.040352451954047</v>
+        <v>1.05526745071801</v>
       </c>
       <c r="L7">
-        <v>1.028821217387541</v>
+        <v>1.053687872226645</v>
       </c>
       <c r="M7">
-        <v>1.045191353861592</v>
+        <v>1.064081567377609</v>
       </c>
       <c r="N7">
-        <v>1.01322230033111</v>
+        <v>1.021096783881301</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002526011979394</v>
+        <v>1.045795436949809</v>
       </c>
       <c r="D8">
-        <v>1.023602307987713</v>
+        <v>1.051375097398992</v>
       </c>
       <c r="E8">
-        <v>1.010521890711276</v>
+        <v>1.049444184945166</v>
       </c>
       <c r="F8">
-        <v>1.027783770605773</v>
+        <v>1.060032564757799</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044917969988139</v>
+        <v>1.039698217141147</v>
       </c>
       <c r="J8">
-        <v>1.024061192889624</v>
+        <v>1.050736038293257</v>
       </c>
       <c r="K8">
-        <v>1.034471787123803</v>
+        <v>1.054064331118757</v>
       </c>
       <c r="L8">
-        <v>1.021561197867247</v>
+        <v>1.052138655317613</v>
       </c>
       <c r="M8">
-        <v>1.038600098522191</v>
+        <v>1.062698572944323</v>
       </c>
       <c r="N8">
-        <v>1.010863043659659</v>
+        <v>1.020614707438209</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9854408327807911</v>
+        <v>1.042504301441656</v>
       </c>
       <c r="D9">
-        <v>1.010451899055157</v>
+        <v>1.048810501344853</v>
       </c>
       <c r="E9">
-        <v>0.9947346362757601</v>
+        <v>1.046270672817325</v>
       </c>
       <c r="F9">
-        <v>1.013319183573747</v>
+        <v>1.057156258367839</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040010644322285</v>
+        <v>1.038949970834522</v>
       </c>
       <c r="J9">
-        <v>1.011518399853314</v>
+        <v>1.048263172475871</v>
       </c>
       <c r="K9">
-        <v>1.023377647353394</v>
+        <v>1.051931848215661</v>
       </c>
       <c r="L9">
-        <v>1.007913721916925</v>
+        <v>1.049400106367906</v>
       </c>
       <c r="M9">
-        <v>1.026199800176538</v>
+        <v>1.060251331825359</v>
       </c>
       <c r="N9">
-        <v>1.006408849018199</v>
+        <v>1.019759001468398</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9732059194319609</v>
+        <v>1.040304866432156</v>
       </c>
       <c r="D10">
-        <v>1.001061544203619</v>
+        <v>1.047095214316144</v>
       </c>
       <c r="E10">
-        <v>0.983470405346352</v>
+        <v>1.04415161641191</v>
       </c>
       <c r="F10">
-        <v>1.003004225774633</v>
+        <v>1.055234487863284</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036437130768862</v>
+        <v>1.038441761398143</v>
       </c>
       <c r="J10">
-        <v>1.002524470126565</v>
+        <v>1.046607226235192</v>
       </c>
       <c r="K10">
-        <v>1.015411658557061</v>
+        <v>1.05050163380803</v>
       </c>
       <c r="L10">
-        <v>0.9981446609990459</v>
+        <v>1.047568340827816</v>
       </c>
       <c r="M10">
-        <v>1.01731944902843</v>
+        <v>1.058612742742771</v>
       </c>
       <c r="N10">
-        <v>1.003208999097942</v>
+        <v>1.019184269769427</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9676746377960471</v>
+        <v>1.039351141146194</v>
       </c>
       <c r="D11">
-        <v>0.9968248863580004</v>
+        <v>1.046351110127944</v>
       </c>
       <c r="E11">
-        <v>0.9783891840301949</v>
+        <v>1.043233173582061</v>
       </c>
       <c r="F11">
-        <v>0.9983535469637549</v>
+        <v>1.054401282379497</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034808702535812</v>
+        <v>1.038219458289838</v>
       </c>
       <c r="J11">
-        <v>0.9984568864304476</v>
+        <v>1.045888380665831</v>
       </c>
       <c r="K11">
-        <v>1.011806930108808</v>
+        <v>1.049880259841437</v>
       </c>
       <c r="L11">
-        <v>0.9937304897985019</v>
+        <v>1.046773668062659</v>
       </c>
       <c r="M11">
-        <v>1.013306579915286</v>
+        <v>1.057901483495754</v>
       </c>
       <c r="N11">
-        <v>1.001760809821298</v>
+        <v>1.018934376858318</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9655817552242282</v>
+        <v>1.038996674679487</v>
       </c>
       <c r="D12">
-        <v>0.9952233649372694</v>
+        <v>1.046074506097192</v>
       </c>
       <c r="E12">
-        <v>0.9764684157426259</v>
+        <v>1.042891885434782</v>
       </c>
       <c r="F12">
-        <v>0.9965959768843752</v>
+        <v>1.054091627866523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034190730323181</v>
+        <v>1.038136546077181</v>
       </c>
       <c r="J12">
-        <v>0.9969177228998503</v>
+        <v>1.045621092692705</v>
       </c>
       <c r="K12">
-        <v>1.010442653490714</v>
+        <v>1.049649137144625</v>
       </c>
       <c r="L12">
-        <v>0.9920607697584002</v>
+        <v>1.046478259736094</v>
       </c>
       <c r="M12">
-        <v>1.011788684478742</v>
+        <v>1.057637024485949</v>
       </c>
       <c r="N12">
-        <v>1.001212698967663</v>
+        <v>1.018841399198962</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9660324761363969</v>
+        <v>1.039072718571844</v>
       </c>
       <c r="D13">
-        <v>0.9955681949248767</v>
+        <v>1.046133848199396</v>
       </c>
       <c r="E13">
-        <v>0.976881985616434</v>
+        <v>1.042965099219924</v>
       </c>
       <c r="F13">
-        <v>0.996974385894583</v>
+        <v>1.05415805734877</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034323896355049</v>
+        <v>1.038154346392529</v>
       </c>
       <c r="J13">
-        <v>0.997249198006804</v>
+        <v>1.045678439469965</v>
       </c>
       <c r="K13">
-        <v>1.010736475571272</v>
+        <v>1.049698728145097</v>
       </c>
       <c r="L13">
-        <v>0.9924203349872329</v>
+        <v>1.046541636383512</v>
       </c>
       <c r="M13">
-        <v>1.012115552758319</v>
+        <v>1.057693763932763</v>
       </c>
       <c r="N13">
-        <v>1.001330745233564</v>
+        <v>1.018861350320142</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9675024413455247</v>
+        <v>1.039321845169657</v>
       </c>
       <c r="D14">
-        <v>0.9966930857371905</v>
+        <v>1.046328250273357</v>
       </c>
       <c r="E14">
-        <v>0.9782311108199421</v>
+        <v>1.043204965437535</v>
       </c>
       <c r="F14">
-        <v>0.9982088947805912</v>
+        <v>1.054375689632125</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034757893753478</v>
+        <v>1.038212611664304</v>
       </c>
       <c r="J14">
-        <v>0.9983302497474486</v>
+        <v>1.045866292231526</v>
       </c>
       <c r="K14">
-        <v>1.011694687368071</v>
+        <v>1.049861161651768</v>
       </c>
       <c r="L14">
-        <v>0.9935930994484913</v>
+        <v>1.046749254270465</v>
       </c>
       <c r="M14">
-        <v>1.013181681274418</v>
+        <v>1.057879628676015</v>
       </c>
       <c r="N14">
-        <v>1.001715715503056</v>
+        <v>1.018926694493389</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9684029540237424</v>
+        <v>1.03947531220068</v>
       </c>
       <c r="D15">
-        <v>0.9973824085439825</v>
+        <v>1.046447999772819</v>
       </c>
       <c r="E15">
-        <v>0.9790578400792749</v>
+        <v>1.043352736526189</v>
       </c>
       <c r="F15">
-        <v>0.9989654503279884</v>
+        <v>1.05450975807244</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035023528340968</v>
+        <v>1.038248465858995</v>
       </c>
       <c r="J15">
-        <v>0.9989925011928644</v>
+        <v>1.045981997705303</v>
       </c>
       <c r="K15">
-        <v>1.012281655024097</v>
+        <v>1.049961200205438</v>
       </c>
       <c r="L15">
-        <v>0.9943116116152829</v>
+        <v>1.046877143673879</v>
       </c>
       <c r="M15">
-        <v>1.013834866875607</v>
+        <v>1.057994110746299</v>
       </c>
       <c r="N15">
-        <v>1.001951533340889</v>
+        <v>1.01896693443759</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9735678256858542</v>
+        <v>1.040368132902271</v>
       </c>
       <c r="D16">
-        <v>1.001338940716915</v>
+        <v>1.047144568759532</v>
       </c>
       <c r="E16">
-        <v>0.9838031082060319</v>
+        <v>1.044212551460283</v>
       </c>
       <c r="F16">
-        <v>1.003308794275255</v>
+        <v>1.055289762102191</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03654341994884</v>
+        <v>1.038456467482235</v>
       </c>
       <c r="J16">
-        <v>1.002790586824226</v>
+        <v>1.04665489510607</v>
       </c>
       <c r="K16">
-        <v>1.015647455387658</v>
+        <v>1.050542828153117</v>
       </c>
       <c r="L16">
-        <v>0.998433534537964</v>
+        <v>1.047621048465985</v>
       </c>
       <c r="M16">
-        <v>1.01758206039151</v>
+        <v>1.058659909660651</v>
       </c>
       <c r="N16">
-        <v>1.003303726685601</v>
+        <v>1.019200832502733</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9767429390632963</v>
+        <v>1.040927808072583</v>
       </c>
       <c r="D17">
-        <v>1.003773622115895</v>
+        <v>1.047581137350863</v>
       </c>
       <c r="E17">
-        <v>0.9867232935495625</v>
+        <v>1.044751651683255</v>
       </c>
       <c r="F17">
-        <v>1.005982314078651</v>
+        <v>1.055778749257074</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037474485897787</v>
+        <v>1.038586339179443</v>
       </c>
       <c r="J17">
-        <v>1.005125151589683</v>
+        <v>1.047076497920138</v>
       </c>
       <c r="K17">
-        <v>1.017715808009259</v>
+        <v>1.05090710786319</v>
       </c>
       <c r="L17">
-        <v>1.000968186235004</v>
+        <v>1.048087273382549</v>
       </c>
       <c r="M17">
-        <v>1.019886258453894</v>
+        <v>1.059077078999969</v>
       </c>
       <c r="N17">
-        <v>1.004134632184387</v>
+        <v>1.019347273674225</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9785726402937406</v>
+        <v>1.041254126814615</v>
       </c>
       <c r="D18">
-        <v>1.005177435607279</v>
+        <v>1.04783564818169</v>
       </c>
       <c r="E18">
-        <v>0.988407134697324</v>
+        <v>1.045066015455941</v>
       </c>
       <c r="F18">
-        <v>1.007524135277792</v>
+        <v>1.056063864642474</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038009806319475</v>
+        <v>1.038661874638668</v>
       </c>
       <c r="J18">
-        <v>1.006470324062478</v>
+        <v>1.047322237404355</v>
       </c>
       <c r="K18">
-        <v>1.018907394237458</v>
+        <v>1.05111938547364</v>
       </c>
       <c r="L18">
-        <v>1.002429022221339</v>
+        <v>1.048359069515197</v>
       </c>
       <c r="M18">
-        <v>1.021214244055875</v>
+        <v>1.059320239289861</v>
       </c>
       <c r="N18">
-        <v>1.004613299477626</v>
+        <v>1.019432591027006</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9791928325271211</v>
+        <v>1.041365371173623</v>
       </c>
       <c r="D19">
-        <v>1.005653398712612</v>
+        <v>1.047922407494649</v>
       </c>
       <c r="E19">
-        <v>0.9889780599890186</v>
+        <v>1.045173191258932</v>
       </c>
       <c r="F19">
-        <v>1.008046940468935</v>
+        <v>1.05616106436859</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038191047630311</v>
+        <v>1.038687593604722</v>
       </c>
       <c r="J19">
-        <v>1.006926252131357</v>
+        <v>1.047405998797454</v>
       </c>
       <c r="K19">
-        <v>1.019311231795716</v>
+        <v>1.051191732750919</v>
       </c>
       <c r="L19">
-        <v>1.002924216435409</v>
+        <v>1.048451720538761</v>
       </c>
       <c r="M19">
-        <v>1.021664397807279</v>
+        <v>1.059403122379684</v>
       </c>
       <c r="N19">
-        <v>1.004775519497482</v>
+        <v>1.0194616652412</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9764046070027121</v>
+        <v>1.040867773752061</v>
       </c>
       <c r="D20">
-        <v>1.003514104443837</v>
+        <v>1.04753431138194</v>
       </c>
       <c r="E20">
-        <v>0.9864120163964809</v>
+        <v>1.044693820089301</v>
       </c>
       <c r="F20">
-        <v>1.005697307489394</v>
+        <v>1.05572629620453</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037375399730694</v>
+        <v>1.03857242758147</v>
       </c>
       <c r="J20">
-        <v>1.004876401165425</v>
+        <v>1.047031281992213</v>
       </c>
       <c r="K20">
-        <v>1.01749544272922</v>
+        <v>1.050868044873881</v>
       </c>
       <c r="L20">
-        <v>1.000698077527614</v>
+        <v>1.048037266894298</v>
       </c>
       <c r="M20">
-        <v>1.019640710967569</v>
+        <v>1.059032338037644</v>
       </c>
       <c r="N20">
-        <v>1.004046108358922</v>
+        <v>1.019331572205037</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9670706590783651</v>
+        <v>1.039248489459616</v>
       </c>
       <c r="D21">
-        <v>0.9963626210158911</v>
+        <v>1.046271009555812</v>
       </c>
       <c r="E21">
-        <v>0.9778347723769372</v>
+        <v>1.043134334659491</v>
       </c>
       <c r="F21">
-        <v>0.9978462145516349</v>
+        <v>1.054311606939054</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034630461964636</v>
+        <v>1.038195463363661</v>
       </c>
       <c r="J21">
-        <v>0.9980127072941524</v>
+        <v>1.045810981952957</v>
       </c>
       <c r="K21">
-        <v>1.011413233891731</v>
+        <v>1.049813337808317</v>
       </c>
       <c r="L21">
-        <v>0.9932486015830595</v>
+        <v>1.046688122409287</v>
       </c>
       <c r="M21">
-        <v>1.012868506268339</v>
+        <v>1.05782490351009</v>
       </c>
       <c r="N21">
-        <v>1.001602639354119</v>
+        <v>1.018907456590063</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9609784195782318</v>
+        <v>1.038229160272466</v>
       </c>
       <c r="D22">
-        <v>0.9917038349873658</v>
+        <v>1.045475500946044</v>
       </c>
       <c r="E22">
-        <v>0.9722471794876252</v>
+        <v>1.042153025359034</v>
       </c>
       <c r="F22">
-        <v>0.9927343404515703</v>
+        <v>1.053421179240823</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032828267282975</v>
+        <v>1.037956489171895</v>
       </c>
       <c r="J22">
-        <v>0.9935322624265593</v>
+        <v>1.045042127455022</v>
       </c>
       <c r="K22">
-        <v>1.007441451707118</v>
+        <v>1.049148367065447</v>
       </c>
       <c r="L22">
-        <v>0.9883892288880061</v>
+        <v>1.045838519864797</v>
       </c>
       <c r="M22">
-        <v>1.008451118760163</v>
+        <v>1.057064202322182</v>
       </c>
       <c r="N22">
-        <v>1.000006924573035</v>
+        <v>1.018639893173933</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9642304202458817</v>
+        <v>1.038769643964927</v>
       </c>
       <c r="D23">
-        <v>0.9941897477048635</v>
+        <v>1.045897332233693</v>
       </c>
       <c r="E23">
-        <v>0.9752287444740489</v>
+        <v>1.042673313647043</v>
       </c>
       <c r="F23">
-        <v>0.9954617735981238</v>
+        <v>1.053893304050173</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033791219381452</v>
+        <v>1.038083360422627</v>
       </c>
       <c r="J23">
-        <v>0.9959239015387875</v>
+        <v>1.04544986536884</v>
       </c>
       <c r="K23">
-        <v>1.009561689153794</v>
+        <v>1.049501055870193</v>
       </c>
       <c r="L23">
-        <v>0.9909828154652693</v>
+        <v>1.046289039181876</v>
       </c>
       <c r="M23">
-        <v>1.010808763003987</v>
+        <v>1.057467611766221</v>
       </c>
       <c r="N23">
-        <v>1.000858760560246</v>
+        <v>1.018781819904806</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9765575533362055</v>
+        <v>1.040894901080364</v>
       </c>
       <c r="D24">
-        <v>1.003631419501728</v>
+        <v>1.047555470430673</v>
       </c>
       <c r="E24">
-        <v>0.9865527290556247</v>
+        <v>1.044719951958028</v>
       </c>
       <c r="F24">
-        <v>1.00582614390197</v>
+        <v>1.055749997798416</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037420196400196</v>
+        <v>1.038578714302898</v>
       </c>
       <c r="J24">
-        <v>1.004988851719334</v>
+        <v>1.04705171366264</v>
       </c>
       <c r="K24">
-        <v>1.017595062055087</v>
+        <v>1.05088569637738</v>
       </c>
       <c r="L24">
-        <v>1.000820182183195</v>
+        <v>1.048059863122124</v>
       </c>
       <c r="M24">
-        <v>1.01975171263615</v>
+        <v>1.059052555070649</v>
       </c>
       <c r="N24">
-        <v>1.004086126905504</v>
+        <v>1.019338667330078</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9899965019596737</v>
+        <v>1.043356055272752</v>
       </c>
       <c r="D25">
-        <v>1.013954490498194</v>
+        <v>1.049474474555147</v>
       </c>
       <c r="E25">
-        <v>0.9989376274396612</v>
+        <v>1.047091676197783</v>
       </c>
       <c r="F25">
-        <v>1.017169401613391</v>
+        <v>1.057900581073501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041329621390221</v>
+        <v>1.039145057529566</v>
       </c>
       <c r="J25">
-        <v>1.014865278167337</v>
+        <v>1.048903748486816</v>
       </c>
       <c r="K25">
-        <v>1.026339975411099</v>
+        <v>1.052484640004114</v>
       </c>
       <c r="L25">
-        <v>1.011552457790465</v>
+        <v>1.05010913672689</v>
       </c>
       <c r="M25">
-        <v>1.029506905742904</v>
+        <v>1.060885236777947</v>
       </c>
       <c r="N25">
-        <v>1.007598516282988</v>
+        <v>1.019980967459269</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_138/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_138/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045315207301049</v>
+        <v>1.000117647968372</v>
       </c>
       <c r="D2">
-        <v>1.051001048080566</v>
+        <v>1.021746335858374</v>
       </c>
       <c r="E2">
-        <v>1.048980915629172</v>
+        <v>1.008292381321441</v>
       </c>
       <c r="F2">
-        <v>1.05961281965858</v>
+        <v>1.025740749199892</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039589985579217</v>
+        <v>1.044233131642894</v>
       </c>
       <c r="J2">
-        <v>1.050375598923911</v>
+        <v>1.022294840775229</v>
       </c>
       <c r="K2">
-        <v>1.053753762412953</v>
+        <v>1.032910800109301</v>
       </c>
       <c r="L2">
-        <v>1.051739247367915</v>
+        <v>1.019637386421927</v>
       </c>
       <c r="M2">
-        <v>1.062341847366663</v>
+        <v>1.036852754274709</v>
       </c>
       <c r="N2">
-        <v>1.020490181430688</v>
+        <v>1.010236548914101</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046735611047428</v>
+        <v>1.007161997688264</v>
       </c>
       <c r="D3">
-        <v>1.052107221536946</v>
+        <v>1.027176746619856</v>
       </c>
       <c r="E3">
-        <v>1.050351359645765</v>
+        <v>1.014817433544178</v>
       </c>
       <c r="F3">
-        <v>1.060854367014548</v>
+        <v>1.03172008710657</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039909136250726</v>
+        <v>1.046228951901418</v>
       </c>
       <c r="J3">
-        <v>1.051441289696072</v>
+        <v>1.027459305469531</v>
       </c>
       <c r="K3">
-        <v>1.054671739114369</v>
+        <v>1.037473314848025</v>
       </c>
       <c r="L3">
-        <v>1.05292040324517</v>
+        <v>1.025264169014166</v>
       </c>
       <c r="M3">
-        <v>1.063396578011904</v>
+        <v>1.041962573816741</v>
       </c>
       <c r="N3">
-        <v>1.020858155085652</v>
+        <v>1.012067419679399</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047653769215566</v>
+        <v>1.011591389493066</v>
       </c>
       <c r="D4">
-        <v>1.052821971629605</v>
+        <v>1.030593870565857</v>
       </c>
       <c r="E4">
-        <v>1.051237556026769</v>
+        <v>1.018926326178024</v>
       </c>
       <c r="F4">
-        <v>1.06165697726501</v>
+        <v>1.035485311155985</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04011384983022</v>
+        <v>1.047471867877494</v>
       </c>
       <c r="J4">
-        <v>1.052129501573666</v>
+        <v>1.030703163164989</v>
       </c>
       <c r="K4">
-        <v>1.055264126635324</v>
+        <v>1.040336560675972</v>
       </c>
       <c r="L4">
-        <v>1.05368358756658</v>
+        <v>1.028801569915012</v>
       </c>
       <c r="M4">
-        <v>1.06407774393469</v>
+        <v>1.045173523154439</v>
       </c>
       <c r="N4">
-        <v>1.021095452694806</v>
+        <v>1.013215927160507</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048039543857213</v>
+        <v>1.013424317329582</v>
       </c>
       <c r="D5">
-        <v>1.053122212171867</v>
+        <v>1.032008414343211</v>
       </c>
       <c r="E5">
-        <v>1.051609980555573</v>
+        <v>1.020628007011172</v>
       </c>
       <c r="F5">
-        <v>1.061994217865025</v>
+        <v>1.037044607167962</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040199482173262</v>
+        <v>1.04798324837579</v>
       </c>
       <c r="J5">
-        <v>1.052418503782546</v>
+        <v>1.032044603205813</v>
       </c>
       <c r="K5">
-        <v>1.055512785307245</v>
+        <v>1.041519972460301</v>
       </c>
       <c r="L5">
-        <v>1.05400417046951</v>
+        <v>1.030265162082013</v>
       </c>
       <c r="M5">
-        <v>1.064363794624899</v>
+        <v>1.046501663305128</v>
       </c>
       <c r="N5">
-        <v>1.021195020839869</v>
+        <v>1.013690495267461</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.048104304431597</v>
+        <v>1.013730407652368</v>
       </c>
       <c r="D6">
-        <v>1.053172609879753</v>
+        <v>1.032244662985866</v>
       </c>
       <c r="E6">
-        <v>1.051672504641348</v>
+        <v>1.020912258914793</v>
       </c>
       <c r="F6">
-        <v>1.062050831789324</v>
+        <v>1.037305070180237</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040213835085694</v>
+        <v>1.048068471145501</v>
       </c>
       <c r="J6">
-        <v>1.052467009750235</v>
+        <v>1.032268562545865</v>
       </c>
       <c r="K6">
-        <v>1.055554513939095</v>
+        <v>1.041717510261658</v>
       </c>
       <c r="L6">
-        <v>1.054057982636073</v>
+        <v>1.030509560261307</v>
       </c>
       <c r="M6">
-        <v>1.064411805629424</v>
+        <v>1.046723419475003</v>
       </c>
       <c r="N6">
-        <v>1.021211727558128</v>
+        <v>1.013769703743899</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047658924809086</v>
+        <v>1.011615993781741</v>
       </c>
       <c r="D7">
-        <v>1.052825984398887</v>
+        <v>1.03061285683154</v>
       </c>
       <c r="E7">
-        <v>1.051242532896154</v>
+        <v>1.018949163303795</v>
       </c>
       <c r="F7">
-        <v>1.061661484180284</v>
+        <v>1.035506237714065</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040114995738869</v>
+        <v>1.047478744148047</v>
       </c>
       <c r="J7">
-        <v>1.052133364496066</v>
+        <v>1.030721173622305</v>
       </c>
       <c r="K7">
-        <v>1.05526745071801</v>
+        <v>1.040352451954048</v>
       </c>
       <c r="L7">
-        <v>1.053687872226645</v>
+        <v>1.028821217387541</v>
       </c>
       <c r="M7">
-        <v>1.064081567377609</v>
+        <v>1.045191353861592</v>
       </c>
       <c r="N7">
-        <v>1.021096783881301</v>
+        <v>1.01322230033111</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045795436949809</v>
+        <v>1.002526011979393</v>
       </c>
       <c r="D8">
-        <v>1.051375097398992</v>
+        <v>1.023602307987713</v>
       </c>
       <c r="E8">
-        <v>1.049444184945166</v>
+        <v>1.010521890711275</v>
       </c>
       <c r="F8">
-        <v>1.060032564757799</v>
+        <v>1.027783770605773</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039698217141147</v>
+        <v>1.044917969988138</v>
       </c>
       <c r="J8">
-        <v>1.050736038293257</v>
+        <v>1.024061192889624</v>
       </c>
       <c r="K8">
-        <v>1.054064331118757</v>
+        <v>1.034471787123803</v>
       </c>
       <c r="L8">
-        <v>1.052138655317613</v>
+        <v>1.021561197867247</v>
       </c>
       <c r="M8">
-        <v>1.062698572944323</v>
+        <v>1.03860009852219</v>
       </c>
       <c r="N8">
-        <v>1.020614707438209</v>
+        <v>1.010863043659659</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042504301441656</v>
+        <v>0.9854408327807928</v>
       </c>
       <c r="D9">
-        <v>1.048810501344853</v>
+        <v>1.010451899055158</v>
       </c>
       <c r="E9">
-        <v>1.046270672817325</v>
+        <v>0.9947346362757621</v>
       </c>
       <c r="F9">
-        <v>1.057156258367839</v>
+        <v>1.013319183573748</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038949970834522</v>
+        <v>1.040010644322286</v>
       </c>
       <c r="J9">
-        <v>1.048263172475871</v>
+        <v>1.011518399853316</v>
       </c>
       <c r="K9">
-        <v>1.051931848215661</v>
+        <v>1.023377647353395</v>
       </c>
       <c r="L9">
-        <v>1.049400106367906</v>
+        <v>1.007913721916927</v>
       </c>
       <c r="M9">
-        <v>1.060251331825359</v>
+        <v>1.02619980017654</v>
       </c>
       <c r="N9">
-        <v>1.019759001468398</v>
+        <v>1.0064088490182</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040304866432156</v>
+        <v>0.9732059194319611</v>
       </c>
       <c r="D10">
-        <v>1.047095214316144</v>
+        <v>1.001061544203619</v>
       </c>
       <c r="E10">
-        <v>1.04415161641191</v>
+        <v>0.9834704053463519</v>
       </c>
       <c r="F10">
-        <v>1.055234487863284</v>
+        <v>1.003004225774633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038441761398143</v>
+        <v>1.036437130768862</v>
       </c>
       <c r="J10">
-        <v>1.046607226235192</v>
+        <v>1.002524470126565</v>
       </c>
       <c r="K10">
-        <v>1.05050163380803</v>
+        <v>1.01541165855706</v>
       </c>
       <c r="L10">
-        <v>1.047568340827816</v>
+        <v>0.9981446609990459</v>
       </c>
       <c r="M10">
-        <v>1.058612742742771</v>
+        <v>1.01731944902843</v>
       </c>
       <c r="N10">
-        <v>1.019184269769427</v>
+        <v>1.003208999097942</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039351141146194</v>
+        <v>0.9676746377960452</v>
       </c>
       <c r="D11">
-        <v>1.046351110127944</v>
+        <v>0.9968248863579988</v>
       </c>
       <c r="E11">
-        <v>1.043233173582061</v>
+        <v>0.9783891840301935</v>
       </c>
       <c r="F11">
-        <v>1.054401282379497</v>
+        <v>0.9983535469637538</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038219458289838</v>
+        <v>1.034808702535811</v>
       </c>
       <c r="J11">
-        <v>1.045888380665831</v>
+        <v>0.9984568864304459</v>
       </c>
       <c r="K11">
-        <v>1.049880259841437</v>
+        <v>1.011806930108807</v>
       </c>
       <c r="L11">
-        <v>1.046773668062659</v>
+        <v>0.9937304897985003</v>
       </c>
       <c r="M11">
-        <v>1.057901483495754</v>
+        <v>1.013306579915284</v>
       </c>
       <c r="N11">
-        <v>1.018934376858318</v>
+        <v>1.001760809821298</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C12">
-        <v>1.038996674679487</v>
+        <v>0.9655817552242281</v>
       </c>
       <c r="D12">
-        <v>1.046074506097192</v>
+        <v>0.9952233649372695</v>
       </c>
       <c r="E12">
-        <v>1.042891885434782</v>
+        <v>0.9764684157426256</v>
       </c>
       <c r="F12">
-        <v>1.054091627866523</v>
+        <v>0.9965959768843752</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038136546077181</v>
+        <v>1.034190730323181</v>
       </c>
       <c r="J12">
-        <v>1.045621092692705</v>
+        <v>0.9969177228998504</v>
       </c>
       <c r="K12">
-        <v>1.049649137144625</v>
+        <v>1.010442653490715</v>
       </c>
       <c r="L12">
-        <v>1.046478259736094</v>
+        <v>0.9920607697584</v>
       </c>
       <c r="M12">
-        <v>1.057637024485949</v>
+        <v>1.011788684478742</v>
       </c>
       <c r="N12">
-        <v>1.018841399198962</v>
+        <v>1.001212698967663</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039072718571844</v>
+        <v>0.9660324761363961</v>
       </c>
       <c r="D13">
-        <v>1.046133848199396</v>
+        <v>0.9955681949248764</v>
       </c>
       <c r="E13">
-        <v>1.042965099219924</v>
+        <v>0.9768819856164332</v>
       </c>
       <c r="F13">
-        <v>1.05415805734877</v>
+        <v>0.9969743858945825</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038154346392529</v>
+        <v>1.034323896355049</v>
       </c>
       <c r="J13">
-        <v>1.045678439469965</v>
+        <v>0.9972491980068033</v>
       </c>
       <c r="K13">
-        <v>1.049698728145097</v>
+        <v>1.010736475571272</v>
       </c>
       <c r="L13">
-        <v>1.046541636383512</v>
+        <v>0.9924203349872321</v>
       </c>
       <c r="M13">
-        <v>1.057693763932763</v>
+        <v>1.012115552758319</v>
       </c>
       <c r="N13">
-        <v>1.018861350320142</v>
+        <v>1.001330745233564</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039321845169657</v>
+        <v>0.9675024413455242</v>
       </c>
       <c r="D14">
-        <v>1.046328250273357</v>
+        <v>0.9966930857371898</v>
       </c>
       <c r="E14">
-        <v>1.043204965437535</v>
+        <v>0.9782311108199415</v>
       </c>
       <c r="F14">
-        <v>1.054375689632125</v>
+        <v>0.9982088947805904</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038212611664304</v>
+        <v>1.034757893753477</v>
       </c>
       <c r="J14">
-        <v>1.045866292231526</v>
+        <v>0.9983302497474478</v>
       </c>
       <c r="K14">
-        <v>1.049861161651768</v>
+        <v>1.011694687368071</v>
       </c>
       <c r="L14">
-        <v>1.046749254270465</v>
+        <v>0.9935930994484906</v>
       </c>
       <c r="M14">
-        <v>1.057879628676015</v>
+        <v>1.013181681274417</v>
       </c>
       <c r="N14">
-        <v>1.018926694493389</v>
+        <v>1.001715715503056</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.03947531220068</v>
+        <v>0.9684029540237407</v>
       </c>
       <c r="D15">
-        <v>1.046447999772819</v>
+        <v>0.9973824085439813</v>
       </c>
       <c r="E15">
-        <v>1.043352736526189</v>
+        <v>0.9790578400792732</v>
       </c>
       <c r="F15">
-        <v>1.05450975807244</v>
+        <v>0.998965450327987</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038248465858995</v>
+        <v>1.035023528340967</v>
       </c>
       <c r="J15">
-        <v>1.045981997705303</v>
+        <v>0.9989925011928629</v>
       </c>
       <c r="K15">
-        <v>1.049961200205438</v>
+        <v>1.012281655024096</v>
       </c>
       <c r="L15">
-        <v>1.046877143673879</v>
+        <v>0.994311611615281</v>
       </c>
       <c r="M15">
-        <v>1.057994110746299</v>
+        <v>1.013834866875605</v>
       </c>
       <c r="N15">
-        <v>1.01896693443759</v>
+        <v>1.001951533340888</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040368132902271</v>
+        <v>0.9735678256858536</v>
       </c>
       <c r="D16">
-        <v>1.047144568759532</v>
+        <v>1.001338940716915</v>
       </c>
       <c r="E16">
-        <v>1.044212551460283</v>
+        <v>0.9838031082060313</v>
       </c>
       <c r="F16">
-        <v>1.055289762102191</v>
+        <v>1.003308794275255</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038456467482235</v>
+        <v>1.036543419948839</v>
       </c>
       <c r="J16">
-        <v>1.04665489510607</v>
+        <v>1.002790586824225</v>
       </c>
       <c r="K16">
-        <v>1.050542828153117</v>
+        <v>1.015647455387658</v>
       </c>
       <c r="L16">
-        <v>1.047621048465985</v>
+        <v>0.9984335345379635</v>
       </c>
       <c r="M16">
-        <v>1.058659909660651</v>
+        <v>1.01758206039151</v>
       </c>
       <c r="N16">
-        <v>1.019200832502733</v>
+        <v>1.003303726685601</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.040927808072583</v>
+        <v>0.9767429390632973</v>
       </c>
       <c r="D17">
-        <v>1.047581137350863</v>
+        <v>1.003773622115896</v>
       </c>
       <c r="E17">
-        <v>1.044751651683255</v>
+        <v>0.9867232935495635</v>
       </c>
       <c r="F17">
-        <v>1.055778749257074</v>
+        <v>1.005982314078652</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038586339179443</v>
+        <v>1.037474485897788</v>
       </c>
       <c r="J17">
-        <v>1.047076497920138</v>
+        <v>1.005125151589684</v>
       </c>
       <c r="K17">
-        <v>1.05090710786319</v>
+        <v>1.01771580800926</v>
       </c>
       <c r="L17">
-        <v>1.048087273382549</v>
+        <v>1.000968186235005</v>
       </c>
       <c r="M17">
-        <v>1.059077078999969</v>
+        <v>1.019886258453895</v>
       </c>
       <c r="N17">
-        <v>1.019347273674225</v>
+        <v>1.004134632184387</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041254126814615</v>
+        <v>0.9785726402937425</v>
       </c>
       <c r="D18">
-        <v>1.04783564818169</v>
+        <v>1.005177435607281</v>
       </c>
       <c r="E18">
-        <v>1.045066015455941</v>
+        <v>0.9884071346973259</v>
       </c>
       <c r="F18">
-        <v>1.056063864642474</v>
+        <v>1.007524135277794</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038661874638668</v>
+        <v>1.038009806319476</v>
       </c>
       <c r="J18">
-        <v>1.047322237404355</v>
+        <v>1.00647032406248</v>
       </c>
       <c r="K18">
-        <v>1.05111938547364</v>
+        <v>1.01890739423746</v>
       </c>
       <c r="L18">
-        <v>1.048359069515197</v>
+        <v>1.002429022221341</v>
       </c>
       <c r="M18">
-        <v>1.059320239289861</v>
+        <v>1.021214244055877</v>
       </c>
       <c r="N18">
-        <v>1.019432591027006</v>
+        <v>1.004613299477626</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041365371173623</v>
+        <v>0.9791928325271195</v>
       </c>
       <c r="D19">
-        <v>1.047922407494649</v>
+        <v>1.005653398712611</v>
       </c>
       <c r="E19">
-        <v>1.045173191258932</v>
+        <v>0.988978059989017</v>
       </c>
       <c r="F19">
-        <v>1.05616106436859</v>
+        <v>1.008046940468933</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038687593604722</v>
+        <v>1.03819104763031</v>
       </c>
       <c r="J19">
-        <v>1.047405998797454</v>
+        <v>1.006926252131356</v>
       </c>
       <c r="K19">
-        <v>1.051191732750919</v>
+        <v>1.019311231795715</v>
       </c>
       <c r="L19">
-        <v>1.048451720538761</v>
+        <v>1.002924216435407</v>
       </c>
       <c r="M19">
-        <v>1.059403122379684</v>
+        <v>1.021664397807278</v>
       </c>
       <c r="N19">
-        <v>1.0194616652412</v>
+        <v>1.004775519497481</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.040867773752061</v>
+        <v>0.9764046070027126</v>
       </c>
       <c r="D20">
-        <v>1.04753431138194</v>
+        <v>1.003514104443838</v>
       </c>
       <c r="E20">
-        <v>1.044693820089301</v>
+        <v>0.9864120163964818</v>
       </c>
       <c r="F20">
-        <v>1.05572629620453</v>
+        <v>1.005697307489394</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03857242758147</v>
+        <v>1.037375399730694</v>
       </c>
       <c r="J20">
-        <v>1.047031281992213</v>
+        <v>1.004876401165425</v>
       </c>
       <c r="K20">
-        <v>1.050868044873881</v>
+        <v>1.01749544272922</v>
       </c>
       <c r="L20">
-        <v>1.048037266894298</v>
+        <v>1.000698077527615</v>
       </c>
       <c r="M20">
-        <v>1.059032338037644</v>
+        <v>1.019640710967569</v>
       </c>
       <c r="N20">
-        <v>1.019331572205037</v>
+        <v>1.004046108358922</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039248489459616</v>
+        <v>0.9670706590783651</v>
       </c>
       <c r="D21">
-        <v>1.046271009555812</v>
+        <v>0.9963626210158913</v>
       </c>
       <c r="E21">
-        <v>1.043134334659491</v>
+        <v>0.9778347723769372</v>
       </c>
       <c r="F21">
-        <v>1.054311606939054</v>
+        <v>0.9978462145516352</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038195463363661</v>
+        <v>1.034630461964635</v>
       </c>
       <c r="J21">
-        <v>1.045810981952957</v>
+        <v>0.9980127072941524</v>
       </c>
       <c r="K21">
-        <v>1.049813337808317</v>
+        <v>1.011413233891731</v>
       </c>
       <c r="L21">
-        <v>1.046688122409287</v>
+        <v>0.9932486015830595</v>
       </c>
       <c r="M21">
-        <v>1.05782490351009</v>
+        <v>1.012868506268339</v>
       </c>
       <c r="N21">
-        <v>1.018907456590063</v>
+        <v>1.001602639354119</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038229160272466</v>
+        <v>0.960978419578232</v>
       </c>
       <c r="D22">
-        <v>1.045475500946044</v>
+        <v>0.9917038349873661</v>
       </c>
       <c r="E22">
-        <v>1.042153025359034</v>
+        <v>0.9722471794876253</v>
       </c>
       <c r="F22">
-        <v>1.053421179240823</v>
+        <v>0.9927343404515708</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037956489171895</v>
+        <v>1.032828267282976</v>
       </c>
       <c r="J22">
-        <v>1.045042127455022</v>
+        <v>0.9935322624265597</v>
       </c>
       <c r="K22">
-        <v>1.049148367065447</v>
+        <v>1.007441451707119</v>
       </c>
       <c r="L22">
-        <v>1.045838519864797</v>
+        <v>0.9883892288880064</v>
       </c>
       <c r="M22">
-        <v>1.057064202322182</v>
+        <v>1.008451118760163</v>
       </c>
       <c r="N22">
-        <v>1.018639893173933</v>
+        <v>1.000006924573036</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.038769643964927</v>
+        <v>0.9642304202458815</v>
       </c>
       <c r="D23">
-        <v>1.045897332233693</v>
+        <v>0.994189747704863</v>
       </c>
       <c r="E23">
-        <v>1.042673313647043</v>
+        <v>0.9752287444740489</v>
       </c>
       <c r="F23">
-        <v>1.053893304050173</v>
+        <v>0.9954617735981236</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038083360422627</v>
+        <v>1.033791219381452</v>
       </c>
       <c r="J23">
-        <v>1.04544986536884</v>
+        <v>0.9959239015387873</v>
       </c>
       <c r="K23">
-        <v>1.049501055870193</v>
+        <v>1.009561689153793</v>
       </c>
       <c r="L23">
-        <v>1.046289039181876</v>
+        <v>0.9909828154652696</v>
       </c>
       <c r="M23">
-        <v>1.057467611766221</v>
+        <v>1.010808763003987</v>
       </c>
       <c r="N23">
-        <v>1.018781819904806</v>
+        <v>1.000858760560246</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.040894901080364</v>
+        <v>0.9765575533362046</v>
       </c>
       <c r="D24">
-        <v>1.047555470430673</v>
+        <v>1.003631419501728</v>
       </c>
       <c r="E24">
-        <v>1.044719951958028</v>
+        <v>0.986552729055624</v>
       </c>
       <c r="F24">
-        <v>1.055749997798416</v>
+        <v>1.005826143901969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038578714302898</v>
+        <v>1.037420196400195</v>
       </c>
       <c r="J24">
-        <v>1.04705171366264</v>
+        <v>1.004988851719334</v>
       </c>
       <c r="K24">
-        <v>1.05088569637738</v>
+        <v>1.017595062055086</v>
       </c>
       <c r="L24">
-        <v>1.048059863122124</v>
+        <v>1.000820182183195</v>
       </c>
       <c r="M24">
-        <v>1.059052555070649</v>
+        <v>1.019751712636149</v>
       </c>
       <c r="N24">
-        <v>1.019338667330078</v>
+        <v>1.004086126905503</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043356055272752</v>
+        <v>0.9899965019596745</v>
       </c>
       <c r="D25">
-        <v>1.049474474555147</v>
+        <v>1.013954490498195</v>
       </c>
       <c r="E25">
-        <v>1.047091676197783</v>
+        <v>0.9989376274396625</v>
       </c>
       <c r="F25">
-        <v>1.057900581073501</v>
+        <v>1.017169401613392</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039145057529566</v>
+        <v>1.041329621390221</v>
       </c>
       <c r="J25">
-        <v>1.048903748486816</v>
+        <v>1.014865278167338</v>
       </c>
       <c r="K25">
-        <v>1.052484640004114</v>
+        <v>1.026339975411099</v>
       </c>
       <c r="L25">
-        <v>1.05010913672689</v>
+        <v>1.011552457790466</v>
       </c>
       <c r="M25">
-        <v>1.060885236777947</v>
+        <v>1.029506905742905</v>
       </c>
       <c r="N25">
-        <v>1.019980967459269</v>
+        <v>1.007598516282988</v>
       </c>
     </row>
   </sheetData>
